--- a/manual_test1.xlsx
+++ b/manual_test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_hatakeyama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F93771C-B2D8-4797-BF39-E397D58D8C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CCCA3D1-8079-4E9F-A27E-F6E1C2C33AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{7B7D63C9-35BE-47EB-ABB4-C0D893F4A63D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dddd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -593,11 +597,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A5CB4E-CDB5-44C4-A58E-9F783DF907B9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -628,6 +630,14 @@
       </c>
       <c r="B5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
